--- a/data/countries/us_virgin_islands.xlsx
+++ b/data/countries/us_virgin_islands.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/BlenmanSandbox-CC1407-MEDCCC/AP 2023 Spr/data/countries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreipascu/Documents/Yale University/Years/Senior/Spring/CSEC 491/local/data/countries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5265800-ABF1-BB4B-9D71-2DDF87B6ED3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE923FF-0DED-0D40-8D97-36E195CA9371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32860" yWindow="800" windowWidth="17880" windowHeight="26400" activeTab="1" xr2:uid="{A00892F2-77B1-0143-89C4-5296CC556B66}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" activeTab="1" xr2:uid="{A00892F2-77B1-0143-89C4-5296CC556B66}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>General</t>
   </si>
@@ -103,9 +111,6 @@
     <t>Total number of tourists, converted from millions to number</t>
   </si>
   <si>
-    <t>2020 (yearly)</t>
-  </si>
-  <si>
     <t>U.S. Virgin Islands</t>
   </si>
   <si>
@@ -119,6 +124,12 @@
   </si>
   <si>
     <t>https://www.statista.com/statistics/816527/us-virgin-islands-number-of-tourist-arrivals</t>
+  </si>
+  <si>
+    <t>2020-2022 (yearly)</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -564,7 +575,7 @@
   <dimension ref="B1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -583,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -601,7 +612,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="4">
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -632,7 +643,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -667,7 +678,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
@@ -683,7 +694,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -699,7 +710,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -707,7 +718,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
@@ -742,7 +753,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:C26"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -956,11 +967,40 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="11">
+        <v>2021</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>7612</v>
+      </c>
+      <c r="D13">
+        <v>66</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:E14" si="0">D13/C13</f>
+        <v>8.670520231213872E-3</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="15"/>
+      <c r="A14" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>14133</v>
+      </c>
+      <c r="D14">
+        <v>38</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>2.688742659024977E-3</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="15"/>
